--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>42.28810843986474</v>
+        <v>74.669016613182</v>
       </c>
       <c r="R2">
-        <v>42.28810843986474</v>
+        <v>672.021149518638</v>
       </c>
       <c r="S2">
-        <v>0.0009921606850741415</v>
+        <v>0.001514180208802982</v>
       </c>
       <c r="T2">
-        <v>0.0009921606850741415</v>
+        <v>0.001514180208802981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>3537.185147683212</v>
+        <v>4907.47619131511</v>
       </c>
       <c r="R3">
-        <v>3537.185147683212</v>
+        <v>44167.28572183599</v>
       </c>
       <c r="S3">
-        <v>0.08298919409814773</v>
+        <v>0.09951655534123301</v>
       </c>
       <c r="T3">
-        <v>0.08298919409814773</v>
+        <v>0.09951655534123299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>13.04588617335645</v>
+        <v>24.90980100544789</v>
       </c>
       <c r="R4">
-        <v>13.04588617335645</v>
+        <v>224.188209049031</v>
       </c>
       <c r="S4">
-        <v>0.0003060816820776674</v>
+        <v>0.0005051349193878511</v>
       </c>
       <c r="T4">
-        <v>0.0003060816820776674</v>
+        <v>0.0005051349193878511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>32.40175234847079</v>
+        <v>46.830777877064</v>
       </c>
       <c r="R5">
-        <v>32.40175234847079</v>
+        <v>421.477000893576</v>
       </c>
       <c r="S5">
-        <v>0.0007602076799764344</v>
+        <v>0.0009496607862354035</v>
       </c>
       <c r="T5">
-        <v>0.0007602076799764344</v>
+        <v>0.0009496607862354033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>192.0810354413127</v>
+        <v>271.4627112041944</v>
       </c>
       <c r="R6">
-        <v>192.0810354413127</v>
+        <v>2443.16440083775</v>
       </c>
       <c r="S6">
-        <v>0.004506592012366984</v>
+        <v>0.005504873150570265</v>
       </c>
       <c r="T6">
-        <v>0.004506592012366984</v>
+        <v>0.005504873150570263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>1240.863534341259</v>
+        <v>2114.766716767994</v>
       </c>
       <c r="R7">
-        <v>1240.863534341259</v>
+        <v>19032.90045091195</v>
       </c>
       <c r="S7">
-        <v>0.02911305470345796</v>
+        <v>0.04288442588381505</v>
       </c>
       <c r="T7">
-        <v>0.02911305470345796</v>
+        <v>0.04288442588381504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>42.01894938236612</v>
+        <v>53.957545927182</v>
       </c>
       <c r="R8">
-        <v>42.01894938236612</v>
+        <v>485.6179133446381</v>
       </c>
       <c r="S8">
-        <v>0.0009858456938216598</v>
+        <v>0.001094181386930083</v>
       </c>
       <c r="T8">
-        <v>0.0009858456938216598</v>
+        <v>0.001094181386930083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>3514.671361759152</v>
+        <v>3546.254979507665</v>
       </c>
       <c r="R9">
-        <v>3514.671361759152</v>
+        <v>31916.29481556898</v>
       </c>
       <c r="S9">
-        <v>0.08246097720479123</v>
+        <v>0.07191294795211717</v>
       </c>
       <c r="T9">
-        <v>0.08246097720479123</v>
+        <v>0.07191294795211717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>12.96285057407803</v>
+        <v>18.00039417622567</v>
       </c>
       <c r="R10">
-        <v>12.96285057407803</v>
+        <v>162.003547586031</v>
       </c>
       <c r="S10">
-        <v>0.0003041335065714782</v>
+        <v>0.0003650220914718948</v>
       </c>
       <c r="T10">
-        <v>0.0003041335065714782</v>
+        <v>0.0003650220914718948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>32.19551883637553</v>
+        <v>33.84099540506401</v>
       </c>
       <c r="R11">
-        <v>32.19551883637553</v>
+        <v>304.568958645576</v>
       </c>
       <c r="S11">
-        <v>0.0007553690435324175</v>
+        <v>0.0006862466898953969</v>
       </c>
       <c r="T11">
-        <v>0.0007553690435324175</v>
+        <v>0.0006862466898953969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>190.8584612385374</v>
+        <v>196.1651883430833</v>
       </c>
       <c r="R12">
-        <v>190.8584612385374</v>
+        <v>1765.48669508775</v>
       </c>
       <c r="S12">
-        <v>0.004477908060699947</v>
+        <v>0.0039779477394747</v>
       </c>
       <c r="T12">
-        <v>0.004477908060699947</v>
+        <v>0.003977947739474699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>1232.965577404674</v>
+        <v>1528.178988032106</v>
       </c>
       <c r="R13">
-        <v>1232.965577404674</v>
+        <v>13753.61089228895</v>
       </c>
       <c r="S13">
-        <v>0.02892775338225955</v>
+        <v>0.03098927084005928</v>
       </c>
       <c r="T13">
-        <v>0.02892775338225955</v>
+        <v>0.03098927084005928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>66.4437652849418</v>
+        <v>95.48673602365803</v>
       </c>
       <c r="R14">
-        <v>66.4437652849418</v>
+        <v>859.3806242129222</v>
       </c>
       <c r="S14">
-        <v>0.001558899040796732</v>
+        <v>0.001936333601917196</v>
       </c>
       <c r="T14">
-        <v>0.001558899040796732</v>
+        <v>0.001936333601917196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>5557.682960831844</v>
+        <v>6275.680394319891</v>
       </c>
       <c r="R15">
-        <v>5557.682960831844</v>
+        <v>56481.12354887901</v>
       </c>
       <c r="S15">
-        <v>0.1303939745066886</v>
+        <v>0.1272617677433629</v>
       </c>
       <c r="T15">
-        <v>0.1303939745066886</v>
+        <v>0.1272617677433628</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>20.4979090060084</v>
+        <v>31.85465271802101</v>
       </c>
       <c r="R16">
-        <v>20.4979090060084</v>
+        <v>286.691874462189</v>
       </c>
       <c r="S16">
-        <v>0.0004809205280701782</v>
+        <v>0.0006459665185332624</v>
       </c>
       <c r="T16">
-        <v>0.0004809205280701782</v>
+        <v>0.0006459665185332623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>50.91016144465532</v>
+        <v>59.88719723061602</v>
       </c>
       <c r="R17">
-        <v>50.91016144465532</v>
+        <v>538.9847750755441</v>
       </c>
       <c r="S17">
-        <v>0.001194450698309029</v>
+        <v>0.00121442618264335</v>
       </c>
       <c r="T17">
-        <v>0.001194450698309029</v>
+        <v>0.00121442618264335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>301.8008538428728</v>
+        <v>347.14650628525</v>
       </c>
       <c r="R18">
-        <v>301.8008538428728</v>
+        <v>3124.31855656725</v>
       </c>
       <c r="S18">
-        <v>0.007080830828139619</v>
+        <v>0.007039631606443697</v>
       </c>
       <c r="T18">
-        <v>0.007080830828139619</v>
+        <v>0.007039631606443696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>1949.665011469065</v>
+        <v>2704.363608827742</v>
       </c>
       <c r="R19">
-        <v>1949.665011469065</v>
+        <v>24339.27247944967</v>
       </c>
       <c r="S19">
-        <v>0.04574290609841282</v>
+        <v>0.05484060242961691</v>
       </c>
       <c r="T19">
-        <v>0.04574290609841282</v>
+        <v>0.05484060242961691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>76.62790505024678</v>
+        <v>100.223042554968</v>
       </c>
       <c r="R20">
-        <v>76.62790505024678</v>
+        <v>902.007382994712</v>
       </c>
       <c r="S20">
-        <v>0.001797838625923943</v>
+        <v>0.002032379082865285</v>
       </c>
       <c r="T20">
-        <v>0.001797838625923943</v>
+        <v>0.002032379082865284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>6409.534444588632</v>
+        <v>6586.964948361689</v>
       </c>
       <c r="R21">
-        <v>6409.534444588632</v>
+        <v>59282.6845352552</v>
       </c>
       <c r="S21">
-        <v>0.1503800552959825</v>
+        <v>0.1335741705633692</v>
       </c>
       <c r="T21">
-        <v>0.1503800552959825</v>
+        <v>0.1335741705633692</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>23.6397172602285</v>
+        <v>33.43469834533822</v>
       </c>
       <c r="R22">
-        <v>23.6397172602285</v>
+        <v>300.912285108044</v>
       </c>
       <c r="S22">
-        <v>0.0005546334167493053</v>
+        <v>0.0006780075701823484</v>
       </c>
       <c r="T22">
-        <v>0.0005546334167493053</v>
+        <v>0.0006780075701823483</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>58.71339471121001</v>
+        <v>62.857705336736</v>
       </c>
       <c r="R23">
-        <v>58.71339471121001</v>
+        <v>565.719348030624</v>
       </c>
       <c r="S23">
-        <v>0.001377529619290981</v>
+        <v>0.00127466381249827</v>
       </c>
       <c r="T23">
-        <v>0.001377529619290981</v>
+        <v>0.00127466381249827</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>348.059250904557</v>
+        <v>364.365570770111</v>
       </c>
       <c r="R24">
-        <v>348.059250904557</v>
+        <v>3279.290136931</v>
       </c>
       <c r="S24">
-        <v>0.008166142151165992</v>
+        <v>0.007388809456101838</v>
       </c>
       <c r="T24">
-        <v>0.008166142151165992</v>
+        <v>0.007388809456101837</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>2248.499083968954</v>
+        <v>2838.504700637125</v>
       </c>
       <c r="R25">
-        <v>2248.499083968954</v>
+        <v>25546.54230573412</v>
       </c>
       <c r="S25">
-        <v>0.05275413050719921</v>
+        <v>0.05756079074356258</v>
       </c>
       <c r="T25">
-        <v>0.05275413050719921</v>
+        <v>0.05756079074356257</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H26">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>105.994001095668</v>
+        <v>138.747462310896</v>
       </c>
       <c r="R26">
-        <v>105.994001095668</v>
+        <v>1248.727160798064</v>
       </c>
       <c r="S26">
-        <v>0.002486823946982001</v>
+        <v>0.002813598879186357</v>
       </c>
       <c r="T26">
-        <v>0.002486823946982001</v>
+        <v>0.002813598879186357</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H27">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J27">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>8865.858990885483</v>
+        <v>9118.907664519948</v>
       </c>
       <c r="R27">
-        <v>8865.858990885483</v>
+        <v>82070.16898067952</v>
       </c>
       <c r="S27">
-        <v>0.2080101724738155</v>
+        <v>0.1849183254019222</v>
       </c>
       <c r="T27">
-        <v>0.2080101724738155</v>
+        <v>0.1849183254019222</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H28">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J28">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>32.69916116770927</v>
+        <v>46.28655676664089</v>
       </c>
       <c r="R28">
-        <v>32.69916116770927</v>
+        <v>416.579010899768</v>
       </c>
       <c r="S28">
-        <v>0.0007671854651914519</v>
+        <v>0.000938624765245809</v>
       </c>
       <c r="T28">
-        <v>0.0007671854651914519</v>
+        <v>0.0009386247652458089</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H29">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J29">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>81.21411670160677</v>
+        <v>87.01938077139201</v>
       </c>
       <c r="R29">
-        <v>81.21411670160677</v>
+        <v>783.174426942528</v>
       </c>
       <c r="S29">
-        <v>0.001905440007536435</v>
+        <v>0.001764627821857121</v>
       </c>
       <c r="T29">
-        <v>0.001905440007536435</v>
+        <v>0.001764627821857121</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H30">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J30">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>481.4459249217881</v>
+        <v>504.4229052424444</v>
       </c>
       <c r="R30">
-        <v>481.4459249217881</v>
+        <v>4539.806147182</v>
       </c>
       <c r="S30">
-        <v>0.01129565110191254</v>
+        <v>0.01022897065782667</v>
       </c>
       <c r="T30">
-        <v>0.01129565110191254</v>
+        <v>0.01022897065782667</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H31">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J31">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>3110.19091822407</v>
+        <v>3929.588584929948</v>
       </c>
       <c r="R31">
-        <v>3110.19091822407</v>
+        <v>35366.29726436953</v>
       </c>
       <c r="S31">
-        <v>0.07297108492153773</v>
+        <v>0.07968640185611625</v>
       </c>
       <c r="T31">
-        <v>0.07297108492153773</v>
+        <v>0.07968640185611624</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H32">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J32">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>22.98586065828608</v>
+        <v>31.82324282585401</v>
       </c>
       <c r="R32">
-        <v>22.98586065828608</v>
+        <v>286.4091854326861</v>
       </c>
       <c r="S32">
-        <v>0.0005392926782283105</v>
+        <v>0.000645329571118697</v>
       </c>
       <c r="T32">
-        <v>0.0005392926782283105</v>
+        <v>0.0006453295711186969</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H33">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J33">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>1922.650312979226</v>
+        <v>2091.520868787597</v>
       </c>
       <c r="R33">
-        <v>1922.650312979226</v>
+        <v>18823.68781908837</v>
       </c>
       <c r="S33">
-        <v>0.04510908910470961</v>
+        <v>0.04241303353736023</v>
       </c>
       <c r="T33">
-        <v>0.04510908910470961</v>
+        <v>0.04241303353736022</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H34">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J34">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>7.091140578469238</v>
+        <v>10.61632631706745</v>
       </c>
       <c r="R34">
-        <v>7.091140578469238</v>
+        <v>95.54693685360701</v>
       </c>
       <c r="S34">
-        <v>0.0001663718514223897</v>
+        <v>0.0002152838209022282</v>
       </c>
       <c r="T34">
-        <v>0.0001663718514223897</v>
+        <v>0.0002152838209022281</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H35">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J35">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>17.61209455904965</v>
+        <v>19.958843489608</v>
       </c>
       <c r="R35">
-        <v>17.61209455904965</v>
+        <v>179.629591406472</v>
       </c>
       <c r="S35">
-        <v>0.0004132137484500158</v>
+        <v>0.0004047366253545307</v>
       </c>
       <c r="T35">
-        <v>0.0004132137484500158</v>
+        <v>0.0004047366253545307</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H36">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J36">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>104.406370458301</v>
+        <v>115.6948915179722</v>
       </c>
       <c r="R36">
-        <v>104.406370458301</v>
+        <v>1041.25402366175</v>
       </c>
       <c r="S36">
-        <v>0.002449575066411836</v>
+        <v>0.002346125915969206</v>
       </c>
       <c r="T36">
-        <v>0.002449575066411836</v>
+        <v>0.002346125915969206</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.1054306722281</v>
+        <v>45.55066433333334</v>
       </c>
       <c r="H37">
-        <v>42.1054306722281</v>
+        <v>136.651993</v>
       </c>
       <c r="I37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="J37">
-        <v>0.06450205301351841</v>
+        <v>0.06430145431675577</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>674.4760489080841</v>
+        <v>901.293974398761</v>
       </c>
       <c r="R37">
-        <v>674.4760489080841</v>
+        <v>8111.645769588848</v>
       </c>
       <c r="S37">
-        <v>0.01582451056429625</v>
+        <v>0.01827694484605089</v>
       </c>
       <c r="T37">
-        <v>0.01582451056429625</v>
+        <v>0.01827694484605089</v>
       </c>
     </row>
   </sheetData>
